--- a/data/info_files/cal_adj_info_test03.xlsx
+++ b/data/info_files/cal_adj_info_test03.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Calendar\PaleoCalAdjust\data\info_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9A3EEF-6049-4FE7-8A2C-E787C1BF5504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="14250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cal_adj_info_test_CCSM4" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
   <si>
     <t>activity</t>
   </si>
@@ -220,12 +221,21 @@
   </si>
   <si>
     <t>Epstein</t>
+  </si>
+  <si>
+    <t>sos</t>
+  </si>
+  <si>
+    <t>sos_Oclim_CCSM4_midHolocene_r1i1p1_100001-130012-clim.nc</t>
+  </si>
+  <si>
+    <t>sos_Oclim_CCSM4_midHolocene_r1i1p1_100001-130012-clim_cal_adj.nc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\'@\'"/>
   </numFmts>
@@ -1029,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1048576"/>
+      <selection activeCell="K6" sqref="K6:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1349,7 @@
         <v>66</v>
       </c>
       <c r="K6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1392,7 +1402,7 @@
         <v>66</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1445,7 +1455,7 @@
         <v>66</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1524,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1551,7 +1561,7 @@
         <v>66</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1563,13 +1573,13 @@
         <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1577,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1616,13 +1626,13 @@
         <v>31</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1630,10 +1640,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1669,13 +1679,13 @@
         <v>31</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1683,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1722,13 +1732,13 @@
         <v>31</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1736,7 +1746,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1775,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1789,7 +1799,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1816,7 +1826,7 @@
         <v>66</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1828,18 +1838,71 @@
         <v>31</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>-6000</v>
+      </c>
+      <c r="F16">
+        <v>-6000</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:X15">
-    <sortCondition ref="B2:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X16">
+    <sortCondition ref="B2:B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
